--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -101,6 +101,267 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Account is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Case Origin </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Case Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Case Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Case Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Priority </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Status, value should be equals Working to submit for Approval towards to the assigned approver </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Case with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Case is created</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On the Case page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Send to Next Approver' button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is redirected to the Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Case name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Case Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab,  and click on existing Case to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Case Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Case is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_6.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab,  and select the existing  Case to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Case is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_7.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_8.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_9.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Account Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Account is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_10.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Account is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -184,8 +445,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0">
-  <x:autoFilter ref="A1:K5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K63" totalsRowShown="0">
+  <x:autoFilter ref="A1:K63"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -491,20 +752,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K5"/>
+  <x:dimension ref="A1:K63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.130625000000002" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="57.840625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="113.70062499999999" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -632,6 +893,1232 @@
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+      <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
+      <x:c r="K20" s="0" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s"/>
+      <x:c r="J21" s="0" t="s"/>
+      <x:c r="K21" s="0" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s"/>
+      <x:c r="F22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s"/>
+      <x:c r="J22" s="0" t="s"/>
+      <x:c r="K22" s="0" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s"/>
+      <x:c r="F23" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s"/>
+      <x:c r="J23" s="0" t="s"/>
+      <x:c r="K23" s="0" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s"/>
+      <x:c r="B24" s="0" t="s"/>
+      <x:c r="C24" s="0" t="s"/>
+      <x:c r="D24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s"/>
+      <x:c r="F24" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s"/>
+      <x:c r="J24" s="0" t="s"/>
+      <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s"/>
+      <x:c r="F25" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s"/>
+      <x:c r="F26" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s"/>
+      <x:c r="F27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+      <x:c r="K28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+      <x:c r="K29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+      <x:c r="K30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+      <x:c r="K31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s"/>
+      <x:c r="B32" s="0" t="s"/>
+      <x:c r="C32" s="0" t="s"/>
+      <x:c r="D32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+      <x:c r="K32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+      <x:c r="K33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+      <x:c r="K34" s="0" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:11">
+      <x:c r="A35" s="0" t="s"/>
+      <x:c r="B35" s="0" t="s"/>
+      <x:c r="C35" s="0" t="s"/>
+      <x:c r="D35" s="0" t="s"/>
+      <x:c r="E35" s="0" t="s"/>
+      <x:c r="F35" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s"/>
+      <x:c r="J35" s="0" t="s"/>
+      <x:c r="K35" s="0" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:11">
+      <x:c r="A36" s="0" t="s"/>
+      <x:c r="B36" s="0" t="s"/>
+      <x:c r="C36" s="0" t="s"/>
+      <x:c r="D36" s="0" t="s"/>
+      <x:c r="E36" s="0" t="s"/>
+      <x:c r="F36" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s"/>
+      <x:c r="J36" s="0" t="s"/>
+      <x:c r="K36" s="0" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
+      <x:c r="E37" s="0" t="s"/>
+      <x:c r="F37" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s"/>
+      <x:c r="J37" s="0" t="s"/>
+      <x:c r="K37" s="0" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="A38" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s"/>
+      <x:c r="F38" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s"/>
+      <x:c r="J38" s="0" t="s"/>
+      <x:c r="K38" s="0" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="A39" s="0" t="s"/>
+      <x:c r="B39" s="0" t="s"/>
+      <x:c r="C39" s="0" t="s"/>
+      <x:c r="D39" s="0" t="s"/>
+      <x:c r="E39" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s"/>
+      <x:c r="J39" s="0" t="s"/>
+      <x:c r="K39" s="0" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s"/>
+      <x:c r="B40" s="0" t="s"/>
+      <x:c r="C40" s="0" t="s"/>
+      <x:c r="D40" s="0" t="s"/>
+      <x:c r="E40" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s"/>
+      <x:c r="J40" s="0" t="s"/>
+      <x:c r="K40" s="0" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s"/>
+      <x:c r="B41" s="0" t="s"/>
+      <x:c r="C41" s="0" t="s"/>
+      <x:c r="D41" s="0" t="s"/>
+      <x:c r="E41" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+      <x:c r="K41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+      <x:c r="K42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+      <x:c r="K43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s"/>
+      <x:c r="B44" s="0" t="s"/>
+      <x:c r="C44" s="0" t="s"/>
+      <x:c r="D44" s="0" t="s"/>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+      <x:c r="K44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+      <x:c r="K45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+      <x:c r="K46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s"/>
+      <x:c r="F47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+      <x:c r="K47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+      <x:c r="K48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+      <x:c r="K49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+      <x:c r="K50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s"/>
+      <x:c r="B51" s="0" t="s"/>
+      <x:c r="C51" s="0" t="s"/>
+      <x:c r="D51" s="0" t="s"/>
+      <x:c r="E51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+      <x:c r="K51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+      <x:c r="K52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s"/>
+      <x:c r="F53" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+      <x:c r="K53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s"/>
+      <x:c r="F54" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+      <x:c r="K54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s"/>
+      <x:c r="F55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+      <x:c r="K55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+      <x:c r="K56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:11">
+      <x:c r="A57" s="0" t="s"/>
+      <x:c r="B57" s="0" t="s"/>
+      <x:c r="C57" s="0" t="s"/>
+      <x:c r="D57" s="0" t="s"/>
+      <x:c r="E57" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+      <x:c r="K57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:11">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+      <x:c r="K58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:11">
+      <x:c r="A59" s="0" t="s"/>
+      <x:c r="B59" s="0" t="s"/>
+      <x:c r="C59" s="0" t="s"/>
+      <x:c r="D59" s="0" t="s"/>
+      <x:c r="E59" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+      <x:c r="K59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:11">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s"/>
+      <x:c r="F60" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+      <x:c r="K60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:11">
+      <x:c r="A61" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s"/>
+      <x:c r="F61" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+      <x:c r="K61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:11">
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s"/>
+      <x:c r="F62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
+      <x:c r="K62" s="0" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:11">
+      <x:c r="A63" s="0" t="s"/>
+      <x:c r="B63" s="0" t="s"/>
+      <x:c r="C63" s="0" t="s"/>
+      <x:c r="D63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s"/>
+      <x:c r="F63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s"/>
+      <x:c r="J63" s="0" t="s"/>
+      <x:c r="K63" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCFCE2-12EE-4DDC-9B24-951B2C9C9C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308863D0-3409-4D60-95C9-A31987CC5341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -757,7 +757,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H27" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46:I60"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,6 +1694,9 @@
       <c r="H61" t="s">
         <v>106</v>
       </c>
+      <c r="I61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F62" t="s">

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308863D0-3409-4D60-95C9-A31987CC5341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEED5B50-0C99-46AC-BD0A-1DF1F15419D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H27" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I61" sqref="I2:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +832,9 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -846,6 +849,9 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -860,6 +866,9 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -871,6 +880,9 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -894,6 +906,9 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -1039,6 +1054,9 @@
       <c r="H17" t="s">
         <v>31</v>
       </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
@@ -1150,6 +1168,9 @@
       </c>
       <c r="H25" t="s">
         <v>71</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
